--- a/Schema_design_excel_sheet.xlsx
+++ b/Schema_design_excel_sheet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sunbeam_KDAC\Project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C07339-6974-4927-A1FD-4B2E39A0F197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0957237F-33EF-40AD-B8B9-9F866BCD72AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER MANAGEMENT MODULE" sheetId="1" r:id="rId1"/>
-    <sheet name="AUTHENTICATION &amp; SECURITY MODUL" sheetId="2" r:id="rId2"/>
-    <sheet name="ADDRESS MANAGEMENT MODULE" sheetId="3" r:id="rId3"/>
-    <sheet name="DRIVER MANAGEMENT MODULE" sheetId="13" r:id="rId4"/>
+    <sheet name="DRIVER MANAGEMENT MODULE" sheetId="13" r:id="rId2"/>
+    <sheet name="AUTHENTICATION &amp; SECURITY MODUL" sheetId="2" r:id="rId3"/>
+    <sheet name="ADDRESS MANAGEMENT MODULE" sheetId="3" r:id="rId4"/>
     <sheet name="VEHICLE MANAGEMENT MODULE" sheetId="4" r:id="rId5"/>
     <sheet name="SERVICE &amp; QUOTATION MODULE" sheetId="5" r:id="rId6"/>
     <sheet name="BOOKING &amp; GOODS MGMT. MODULE" sheetId="6" r:id="rId7"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="458">
   <si>
     <t>Attribute</t>
   </si>
@@ -199,12 +199,6 @@
     <t>NULL ALLOWED</t>
   </si>
   <si>
-    <t>User Role</t>
-  </si>
-  <si>
-    <t>person_role_id</t>
-  </si>
-  <si>
     <t>Unique ID</t>
   </si>
   <si>
@@ -212,15 +206,6 @@
   </si>
   <si>
     <t>Person ID</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY REFERENCES Role(role_id) ON DELETE CASCADE</t>
-  </si>
-  <si>
-    <t>assigned_at</t>
-  </si>
-  <si>
-    <t>Assignment time</t>
   </si>
   <si>
     <t>LOGIN_TOKENS</t>
@@ -1427,7 +1412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1447,6 +1432,22 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1487,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1508,7 +1509,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,9 +1521,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2075,79 +2082,37 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D519CBA-83CE-40E4-A866-C19D3BFF138A}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,145 +2136,145 @@
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -2318,26 +2283,26 @@
         <v>24</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -2346,12 +2311,12 @@
         <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>52</v>
@@ -2360,7 +2325,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -2374,33 +2339,33 @@
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2408,13 +2373,13 @@
         <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2392,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,133 +2403,133 @@
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="10" t="s">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D11" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2576,167 +2541,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72F04D2-B53F-4934-820F-AB2DEC1E3D20}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
@@ -2745,40 +2710,40 @@
         <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -2787,12 +2752,12 @@
         <v>25</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -2801,7 +2766,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2813,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63415ECA-2024-443E-8C3D-8DB83C879615}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,168 +2790,168 @@
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2995,10 +2960,514 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DF66DD-2C2B-4ABA-BD83-FFBCC809FD65}">
+  <dimension ref="B2:E46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7715187B-0C1D-4AFA-8862-89A2CA8C80DF}">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3012,123 +3481,123 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -3137,74 +3606,74 @@
         <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>80</v>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3692,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>
@@ -3232,7 +3701,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -3243,27 +3712,27 @@
         <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -3275,7 +3744,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>23</v>
@@ -3284,31 +3753,31 @@
         <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
-        <v>102</v>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C62C8-D469-4AF1-BB98-19F9561484C7}">
   <dimension ref="B2:E27"/>
   <sheetViews>
@@ -3334,111 +3803,111 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>105</v>
+      <c r="E5" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>107</v>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -3457,7 +3926,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -3466,7 +3935,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -3477,588 +3946,84 @@
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DF66DD-2C2B-4ABA-BD83-FFBCC809FD65}">
-  <dimension ref="B2:E46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>460</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4071,7 +4036,7 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,166 +4049,166 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="10" t="s">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -4262,7 +4227,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
@@ -4271,69 +4236,69 @@
         <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4359,106 +4324,106 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -4477,7 +4442,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -4486,128 +4451,128 @@
         <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -4616,38 +4581,38 @@
         <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -4666,7 +4631,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>15</v>
@@ -4675,52 +4640,52 @@
         <v>24</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>23</v>
@@ -4729,21 +4694,21 @@
         <v>28</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707F125F-AF2D-4F36-8BEB-A9E633D0F6A2}">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -4769,176 +4734,176 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="10" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="10" t="s">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="D15" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -4957,7 +4922,7 @@
     </row>
     <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
@@ -4966,26 +4931,26 @@
         <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -4994,12 +4959,12 @@
         <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
@@ -5008,59 +4973,59 @@
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5072,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D54EECB-50CD-46D6-9BAF-2E06F090346D}">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,124 +5051,124 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10" t="s">
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -5222,7 +5187,7 @@
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -5231,68 +5196,68 @@
         <v>24</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -5301,12 +5266,12 @@
         <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>297</v>
+      <c r="B25" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -5325,7 +5290,7 @@
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
@@ -5334,12 +5299,12 @@
         <v>24</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>49</v>
@@ -5348,7 +5313,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -5360,26 +5325,26 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -5388,12 +5353,12 @@
         <v>25</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>23</v>
@@ -5402,33 +5367,33 @@
         <v>25</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5440,127 +5405,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF2C7A8-C931-4428-947A-12DC12545B2D}">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="D8" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -5569,54 +5534,54 @@
         <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -5625,31 +5590,31 @@
         <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
@@ -5658,62 +5623,62 @@
         <v>24</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>23</v>
@@ -5722,7 +5687,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Schema_design_excel_sheet.xlsx
+++ b/Schema_design_excel_sheet.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sunbeam_KDAC\Project\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0957237F-33EF-40AD-B8B9-9F866BCD72AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B31863A-EBC0-47BF-BF6B-259E5C1EC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER MANAGEMENT MODULE" sheetId="1" r:id="rId1"/>
     <sheet name="DRIVER MANAGEMENT MODULE" sheetId="13" r:id="rId2"/>
-    <sheet name="AUTHENTICATION &amp; SECURITY MODUL" sheetId="2" r:id="rId3"/>
-    <sheet name="ADDRESS MANAGEMENT MODULE" sheetId="3" r:id="rId4"/>
-    <sheet name="VEHICLE MANAGEMENT MODULE" sheetId="4" r:id="rId5"/>
-    <sheet name="SERVICE &amp; QUOTATION MODULE" sheetId="5" r:id="rId6"/>
-    <sheet name="BOOKING &amp; GOODS MGMT. MODULE" sheetId="6" r:id="rId7"/>
-    <sheet name="PAYMENT &amp; REWARDS MODULE" sheetId="7" r:id="rId8"/>
-    <sheet name="TRACKING &amp; DELIVERY MODULE" sheetId="8" r:id="rId9"/>
-    <sheet name="COMMUNICATION &amp; NOTIFICATION" sheetId="9" r:id="rId10"/>
-    <sheet name="DOCUMENTS &amp; VERIFICATION MODULE" sheetId="10" r:id="rId11"/>
-    <sheet name="BRANCH MANAGEMENT MODULE" sheetId="11" r:id="rId12"/>
-    <sheet name="ADMIN CONTROL MODULE" sheetId="12" r:id="rId13"/>
+    <sheet name="EMPLOYEE MANAGEMENT MODULE" sheetId="14" r:id="rId3"/>
+    <sheet name="AUTHENTICATION &amp; SECURITY MODUL" sheetId="2" r:id="rId4"/>
+    <sheet name="ADDRESS MANAGEMENT MODULE" sheetId="3" r:id="rId5"/>
+    <sheet name="VEHICLE MANAGEMENT MODULE" sheetId="4" r:id="rId6"/>
+    <sheet name="SERVICE &amp; QUOTATION MODULE" sheetId="5" r:id="rId7"/>
+    <sheet name="BOOKING &amp; GOODS MGMT. MODULE" sheetId="6" r:id="rId8"/>
+    <sheet name="PAYMENT &amp; REWARDS MODULE" sheetId="7" r:id="rId9"/>
+    <sheet name="TRACKING &amp; DELIVERY MODULE" sheetId="8" r:id="rId10"/>
+    <sheet name="COMMUNICATION &amp; NOTIFICATION" sheetId="9" r:id="rId11"/>
+    <sheet name="DOCUMENTS &amp; VERIFICATION MODULE" sheetId="10" r:id="rId12"/>
+    <sheet name="BRANCH MANAGEMENT MODULE" sheetId="11" r:id="rId13"/>
+    <sheet name="ADMIN CONTROL MODULE" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="495">
   <si>
     <t>Attribute</t>
   </si>
@@ -1406,6 +1407,117 @@
   </si>
   <si>
     <t>Type(s) of vehicle the driver can operate</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>employee_id (PK)</t>
+  </si>
+  <si>
+    <t>Unique employee ID</t>
+  </si>
+  <si>
+    <t>Employee’s first name</t>
+  </si>
+  <si>
+    <t>Employee’s last name</t>
+  </si>
+  <si>
+    <t>Unique email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>hire_date</t>
+  </si>
+  <si>
+    <t>Date of joining</t>
+  </si>
+  <si>
+    <t>Employment status</t>
+  </si>
+  <si>
+    <t>role_id (FK)</t>
+  </si>
+  <si>
+    <t>Links to role table (optional)</t>
+  </si>
+  <si>
+    <t>user_id (FK)</t>
+  </si>
+  <si>
+    <t>Links to user account for login (optional)</t>
+  </si>
+  <si>
+    <t>EMPLYEE_ASSIGNMENT</t>
+  </si>
+  <si>
+    <t>assignment_id (PK)</t>
+  </si>
+  <si>
+    <t>employee_id (FK)</t>
+  </si>
+  <si>
+    <t>Assigned employee</t>
+  </si>
+  <si>
+    <t>customer_request_id (FK)</t>
+  </si>
+  <si>
+    <t>The customer’s relocation request</t>
+  </si>
+  <si>
+    <t>assigned_date</t>
+  </si>
+  <si>
+    <t>When assigned</t>
+  </si>
+  <si>
+    <t>ENUM('pending','in-progress','completed')</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_PAYMENT</t>
+  </si>
+  <si>
+    <t>payment_id (PK)</t>
+  </si>
+  <si>
+    <t>Employee reference</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Amount paid or handled</t>
+  </si>
+  <si>
+    <t>payment_type</t>
+  </si>
+  <si>
+    <t>ENUM('salary','commission','bonus')</t>
+  </si>
+  <si>
+    <t>Payment date</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Optional note</t>
   </si>
 </sst>
 </file>
@@ -2121,6 +2233,300 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF2C7A8-C931-4428-947A-12DC12545B2D}">
+  <dimension ref="B2:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D519CBA-83CE-40E4-A866-C19D3BFF138A}">
   <dimension ref="B2:E24"/>
   <sheetViews>
@@ -2387,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6657BDC6-C219-4021-B733-681CC5606BA5}">
   <dimension ref="B2:E12"/>
   <sheetViews>
@@ -2537,11 +2943,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72F04D2-B53F-4934-820F-AB2DEC1E3D20}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2774,7 +3180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63415ECA-2024-443E-8C3D-8DB83C879615}">
   <dimension ref="B2:E18"/>
   <sheetViews>
@@ -3343,7 +3749,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>446</v>
       </c>
@@ -3464,11 +3870,311 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2645935E-455F-4F73-860B-4037BE01AFAA}">
+  <dimension ref="B2:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7715187B-0C1D-4AFA-8862-89A2CA8C80DF}">
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3785,7 +4491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C62C8-D469-4AF1-BB98-19F9561484C7}">
   <dimension ref="B2:E27"/>
   <sheetViews>
@@ -4031,7 +4737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6A5700-9044-4FA8-BD4C-C77EBDF7DE5A}">
   <dimension ref="B2:E26"/>
   <sheetViews>
@@ -4306,7 +5012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F1F487-B680-4D75-BCA6-2A07722803FE}">
   <dimension ref="B2:E39"/>
   <sheetViews>
@@ -4716,7 +5422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707F125F-AF2D-4F36-8BEB-A9E633D0F6A2}">
   <dimension ref="B2:E28"/>
   <sheetViews>
@@ -5033,7 +5739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D54EECB-50CD-46D6-9BAF-2E06F090346D}">
   <dimension ref="B2:E35"/>
   <sheetViews>
@@ -5399,298 +6105,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF2C7A8-C931-4428-947A-12DC12545B2D}">
-  <dimension ref="B2:E30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>